--- a/Billing System Generic/brahmani com .bill.xlsx
+++ b/Billing System Generic/brahmani com .bill.xlsx
@@ -1239,6 +1239,48 @@
     <xf numFmtId="0" fontId="29" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1265,48 +1307,6 @@
     </xf>
     <xf numFmtId="10" fontId="29" fillId="22" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1459,7 +1459,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1775,7 +1775,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1839,7 +1839,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="48">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I3" s="37"/>
     </row>
@@ -1986,22 +1986,22 @@
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
       <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="67"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="81"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9">
@@ -2018,11 +2018,11 @@
       <c r="A19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="59" t="s">
         <v>4</v>
       </c>
@@ -2038,11 +2038,11 @@
       <c r="A20" s="49">
         <v>1</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="33">
         <v>1</v>
       </c>
@@ -2059,11 +2059,11 @@
       <c r="A21" s="49">
         <v>2</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="33">
         <v>1</v>
       </c>
@@ -2080,11 +2080,11 @@
       <c r="A22" s="49">
         <v>3</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="33">
         <v>1</v>
       </c>
@@ -2101,11 +2101,11 @@
       <c r="A23" s="49">
         <v>4</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="33">
         <v>1</v>
       </c>
@@ -2122,11 +2122,11 @@
       <c r="A24" s="49">
         <v>5</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="33">
         <v>1</v>
       </c>
@@ -2143,11 +2143,11 @@
       <c r="A25" s="49">
         <v>6</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="33">
         <v>1</v>
       </c>
@@ -2164,11 +2164,11 @@
       <c r="A26" s="49">
         <v>7</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="33">
         <v>1</v>
       </c>
@@ -2185,11 +2185,11 @@
       <c r="A27" s="49">
         <v>8</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="33">
         <v>1</v>
       </c>
@@ -2206,11 +2206,11 @@
       <c r="A28" s="49">
         <v>9</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="33">
         <v>1</v>
       </c>
@@ -2225,9 +2225,9 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="49"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="33"/>
       <c r="F29" s="50"/>
       <c r="G29" s="34">
@@ -2238,9 +2238,9 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="49"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="33"/>
       <c r="F30" s="50"/>
       <c r="G30" s="34">
@@ -2251,9 +2251,9 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="49"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="33"/>
       <c r="F31" s="50"/>
       <c r="G31" s="34">
@@ -2264,9 +2264,9 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="49"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="33"/>
       <c r="F32" s="50"/>
       <c r="G32" s="34"/>
@@ -2276,9 +2276,9 @@
       <c r="A33" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="33"/>
       <c r="F33" s="50"/>
       <c r="G33" s="34">
@@ -2291,9 +2291,9 @@
       <c r="A34" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="33"/>
       <c r="F34" s="50"/>
       <c r="G34" s="34">
@@ -2306,9 +2306,9 @@
       <c r="A35" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="33"/>
       <c r="F35" s="50"/>
       <c r="G35" s="34">
@@ -2321,9 +2321,9 @@
       <c r="A36" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="33"/>
       <c r="F36" s="50"/>
       <c r="G36" s="34">
@@ -2336,9 +2336,9 @@
       <c r="A37" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="33"/>
       <c r="F37" s="50"/>
       <c r="G37" s="34">
@@ -2348,10 +2348,10 @@
       <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="23" t="s">
         <v>7</v>
       </c>
@@ -2365,12 +2365,12 @@
       <c r="I38" s="42"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="74"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="35"/>
       <c r="F39" s="21" t="s">
         <v>9</v>
@@ -2381,10 +2381,10 @@
       <c r="I39" s="45"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="17"/>
       <c r="F40" s="16" t="s">
         <v>29</v>
@@ -2395,10 +2395,10 @@
       <c r="I40" s="45"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="17"/>
       <c r="F41" s="19" t="s">
         <v>10</v>
@@ -2407,10 +2407,10 @@
       <c r="I41" s="46"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" thickTop="1">
-      <c r="A42" s="78"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="17"/>
       <c r="F42" s="20" t="s">
         <v>6</v>
@@ -2423,17 +2423,17 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1">
-      <c r="A43" s="78"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1">
-      <c r="A44" s="81"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:9">
@@ -2453,27 +2453,27 @@
       <c r="I46" s="42"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
       <c r="I47" s="42"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
       <c r="I48" s="42"/>
     </row>
     <row r="49" spans="9:9">
@@ -2481,14 +2481,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
@@ -2501,18 +2505,14 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
